--- a/web/new_bc_fournisseur.xlsx
+++ b/web/new_bc_fournisseur.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\hope3k\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\h3k\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD178F4-AB16-41C4-ABCF-CC01821CA945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$389</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1794,9 +1796,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1879,7 +1881,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2193,11 +2195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F389"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15278,6 +15280,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J389"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>